--- a/KPP_MS/KPP_MS/download/staff_info.xlsx
+++ b/KPP_MS/KPP_MS/download/staff_info.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F597774-04E7-4AC6-85AE-EBB8F8085747}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Staff_ID</t>
   </si>
@@ -40,9 +39,6 @@
     <t>Staff_MobileNo</t>
   </si>
   <si>
-    <t>Staff_TelNo</t>
-  </si>
-  <si>
     <t>Staff_Address</t>
   </si>
   <si>
@@ -70,9 +66,6 @@
     <t>0001112233</t>
   </si>
   <si>
-    <t>088000111</t>
-  </si>
-  <si>
     <t>Konoha</t>
   </si>
   <si>
@@ -106,27 +99,12 @@
     <t>PENSYARAH</t>
   </si>
   <si>
-    <t>HEP</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SUP</t>
-  </si>
-  <si>
-    <t>PPE</t>
-  </si>
-  <si>
     <t>PENGARAH</t>
   </si>
   <si>
     <t>TIMBALAN PENGARAH</t>
   </si>
   <si>
-    <t>KSLR</t>
-  </si>
-  <si>
     <t>KOKURIKULUM</t>
   </si>
   <si>
@@ -146,12 +124,51 @@
   </si>
   <si>
     <t>Guid Position 3 :</t>
+  </si>
+  <si>
+    <t>KAUNSELOR (KSLR)</t>
+  </si>
+  <si>
+    <t>PENGURUS PEJABAT &amp; EKSEKUTIF (PPE)</t>
+  </si>
+  <si>
+    <t>SETIAUSAHA PEPERIKSAAN (SUP)</t>
+  </si>
+  <si>
+    <t>SETIAUSAHA DATA (SUD)</t>
+  </si>
+  <si>
+    <t>HAL EHWAL PELAJAR (HEP)</t>
+  </si>
+  <si>
+    <t>HAL EHWAL AKADEMIK (HEA)</t>
+  </si>
+  <si>
+    <t>PENYELARAS ASRAMA (PA)</t>
+  </si>
+  <si>
+    <t>KETUA UNIT (KU)</t>
+  </si>
+  <si>
+    <t>Staff_Campus</t>
+  </si>
+  <si>
+    <t>PGPN</t>
+  </si>
+  <si>
+    <t>PGPN - Pusat GENIUS@Pintar Negara, UKM</t>
+  </si>
+  <si>
+    <t>APP - Akademik Pintar Pendang</t>
+  </si>
+  <si>
+    <t>Guid Campus :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,12 +215,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -484,210 +512,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="O7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I15" s="4"/>
-      <c r="J15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="4"/>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{E7648A38-0E6F-49FB-B858-8F7DE92595FF}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
